--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Github\Sharif-Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\پروژه\دکتر حسابی\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Business" sheetId="1" r:id="rId1"/>
     <sheet name="SystemOperator" sheetId="2" r:id="rId2"/>
     <sheet name="Group" sheetId="3" r:id="rId3"/>
     <sheet name="Prodcucts" sheetId="5" r:id="rId4"/>
+    <sheet name="User" sheetId="6" r:id="rId5"/>
+    <sheet name="Customer" sheetId="7" r:id="rId6"/>
+    <sheet name="Marketer" sheetId="8" r:id="rId7"/>
+    <sheet name="Store" sheetId="9" r:id="rId8"/>
+    <sheet name="Seller" sheetId="10" r:id="rId9"/>
+    <sheet name="Transaction" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="453">
   <si>
     <t>آیسان بار</t>
   </si>
@@ -1119,19 +1125,290 @@
   </si>
   <si>
     <t>On October 11, 2016, Amazon announced plans to build convenience stores and develop curbside pickup locations for food.[32] In December 2016, the Amazon Go store was opened to Amazon employees in Seattle.[33] The store uses a variety of sensors and automatically charges a shopper's Amazon account as they walk out of the store, eliminating the need for checkout lines.[34][35] The store is planned to open for the general public in early 2017</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>MohamRe</t>
+  </si>
+  <si>
+    <t>Jacob Lindblad</t>
+  </si>
+  <si>
+    <t>Natalie Tigue</t>
+  </si>
+  <si>
+    <t>Pattie Shepherd</t>
+  </si>
+  <si>
+    <t>Marni Huth</t>
+  </si>
+  <si>
+    <t>Freddie Dunkelberger</t>
+  </si>
+  <si>
+    <t>Maximo Soderstrom</t>
+  </si>
+  <si>
+    <t>Cordell Mcgovern</t>
+  </si>
+  <si>
+    <t>Analisa Hawkes</t>
+  </si>
+  <si>
+    <t>Norine Smits</t>
+  </si>
+  <si>
+    <t>Brain Stanger</t>
+  </si>
+  <si>
+    <t>Lillia Lohmann</t>
+  </si>
+  <si>
+    <t>Neil Courtney</t>
+  </si>
+  <si>
+    <t>Vernice Parm</t>
+  </si>
+  <si>
+    <t>Alva Yost</t>
+  </si>
+  <si>
+    <t>Enriqueta Auld</t>
+  </si>
+  <si>
+    <t>Cathryn Burner</t>
+  </si>
+  <si>
+    <t>Cathleen Autrey</t>
+  </si>
+  <si>
+    <t>Maia Bookman</t>
+  </si>
+  <si>
+    <t>Marilyn Pablo</t>
+  </si>
+  <si>
+    <t>Carry Croft</t>
+  </si>
+  <si>
+    <t>Clare Mitton</t>
+  </si>
+  <si>
+    <t>Mira Fucci</t>
+  </si>
+  <si>
+    <t>Ingeborg Christopherso</t>
+  </si>
+  <si>
+    <t>Hiram Garmany</t>
+  </si>
+  <si>
+    <t>Sheri Bolton</t>
+  </si>
+  <si>
+    <t>Gladis Gridley</t>
+  </si>
+  <si>
+    <t>Kyla Stidham</t>
+  </si>
+  <si>
+    <t>Hoa Guzik</t>
+  </si>
+  <si>
+    <t>Alesia Moshier</t>
+  </si>
+  <si>
+    <t>Francesca Leak</t>
+  </si>
+  <si>
+    <t>Shelley Salisbury</t>
+  </si>
+  <si>
+    <t>Laree Arbour</t>
+  </si>
+  <si>
+    <t>Margarita Lima</t>
+  </si>
+  <si>
+    <t>Stephan Klocke</t>
+  </si>
+  <si>
+    <t>Claudine Coles</t>
+  </si>
+  <si>
+    <t>patrick.ackermann@luxembassy.vn</t>
+  </si>
+  <si>
+    <t>vale.ammaturo@gmail.com</t>
+  </si>
+  <si>
+    <t>eva.konstframjandet@bliztmail.se</t>
+  </si>
+  <si>
+    <t>Kimmo.Aulake@minedu.fi</t>
+  </si>
+  <si>
+    <t>simon.beardow@britishcouncil.org.vn</t>
+  </si>
+  <si>
+    <t>nhung201@yahoo.com</t>
+  </si>
+  <si>
+    <t>patrice.burel@francophonie.org.vn</t>
+  </si>
+  <si>
+    <t>lgomez@ielpo.org</t>
+  </si>
+  <si>
+    <t>stamina.khyang@undp.org</t>
+  </si>
+  <si>
+    <t>duriyaa@hotmail.com</t>
+  </si>
+  <si>
+    <t>cheanariny@yahoo.com</t>
+  </si>
+  <si>
+    <t>hubert.cooreman@diplobel.fed.be</t>
+  </si>
+  <si>
+    <t>daomaitrang@gmail.com</t>
+  </si>
+  <si>
+    <t>hnpe2000@gmail.com</t>
+  </si>
+  <si>
+    <t>gilles.delcourt@culture.gouv.fr</t>
+  </si>
+  <si>
+    <t>md@mct.in.th</t>
+  </si>
+  <si>
+    <t>honhanh@vir.com.vn</t>
+  </si>
+  <si>
+    <t>doanhuyentrang1986@yahoo.com.vn</t>
+  </si>
+  <si>
+    <t>Sean_Doyle@ec.europa.eu</t>
+  </si>
+  <si>
+    <t>llik_me@yahoo.com</t>
+  </si>
+  <si>
+    <t>sanferor@hotmail.com</t>
+  </si>
+  <si>
+    <t>jpgrp2002@yahoo.com</t>
+  </si>
+  <si>
+    <t>ogh@cudic.dk</t>
+  </si>
+  <si>
+    <t>pg_philipos@yahoo.com</t>
+  </si>
+  <si>
+    <t>yvonne.gimpel@eu-xxl.at</t>
+  </si>
+  <si>
+    <t>dominique.gigard@asef.org</t>
+  </si>
+  <si>
+    <t>julien.guerrier@eu-japan.gr.jp</t>
+  </si>
+  <si>
+    <t>vanha@redbridgevn.com</t>
+  </si>
+  <si>
+    <t>michael.helston@culture.gsi.gov.uk</t>
+  </si>
+  <si>
+    <t>hengsothea2003@yahoo.com</t>
+  </si>
+  <si>
+    <t>thegioiphunu@yahoo.com</t>
+  </si>
+  <si>
+    <t>pekka.hyvonen@formin.fi</t>
+  </si>
+  <si>
+    <t>rodzuan@heritage.gov.my</t>
+  </si>
+  <si>
+    <t>hanoi@embassy.mzv.cz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">johannot.pb@gmail.com </t>
+  </si>
+  <si>
+    <t>samraing2003@yahoo.com</t>
+  </si>
+  <si>
+    <t>kjlklsd@hjkh.com</t>
+  </si>
+  <si>
+    <t>mailsjd@yhj.com</t>
+  </si>
+  <si>
+    <t>Seller</t>
+  </si>
+  <si>
+    <t>Marketer</t>
+  </si>
+  <si>
+    <t>Zina Bergfeld</t>
+  </si>
+  <si>
+    <t>Melvin Myler</t>
+  </si>
+  <si>
+    <t>Miguel Leiser</t>
+  </si>
+  <si>
+    <t>Diego Montalbano</t>
+  </si>
+  <si>
+    <t>Riley Subia</t>
+  </si>
+  <si>
+    <t>Loralee Lorentzen</t>
+  </si>
+  <si>
+    <t>Martin Llanes</t>
+  </si>
+  <si>
+    <t>Magan Mccloskey</t>
+  </si>
+  <si>
+    <t>Mildred Via</t>
+  </si>
+  <si>
+    <t>Venice Bishop</t>
+  </si>
+  <si>
+    <t>Sue Fisch</t>
+  </si>
+  <si>
+    <t>09388063351</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1151,17 +1428,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1445,9 +1732,9 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1461,7 +1748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1475,7 +1762,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6</v>
       </c>
@@ -1489,7 +1776,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7</v>
       </c>
@@ -1503,7 +1790,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1517,7 +1804,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1531,7 +1818,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1545,7 +1832,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
@@ -1559,7 +1846,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
@@ -1573,7 +1860,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1587,7 +1874,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -1601,7 +1888,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1615,7 +1902,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>16</v>
       </c>
@@ -1629,7 +1916,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>17</v>
       </c>
@@ -1643,7 +1930,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18</v>
       </c>
@@ -1657,7 +1944,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>19</v>
       </c>
@@ -1671,7 +1958,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20</v>
       </c>
@@ -1685,7 +1972,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>21</v>
       </c>
@@ -1699,7 +1986,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>22</v>
       </c>
@@ -1713,7 +2000,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>23</v>
       </c>
@@ -1727,7 +2014,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>24</v>
       </c>
@@ -1741,7 +2028,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>25</v>
       </c>
@@ -1755,7 +2042,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>26</v>
       </c>
@@ -1769,7 +2056,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>27</v>
       </c>
@@ -1783,7 +2070,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28</v>
       </c>
@@ -1797,7 +2084,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>29</v>
       </c>
@@ -1811,7 +2098,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>30</v>
       </c>
@@ -1825,7 +2112,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>31</v>
       </c>
@@ -1839,7 +2126,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>32</v>
       </c>
@@ -1853,7 +2140,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>33</v>
       </c>
@@ -1867,7 +2154,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>34</v>
       </c>
@@ -1881,7 +2168,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>35</v>
       </c>
@@ -1895,7 +2182,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>36</v>
       </c>
@@ -1909,7 +2196,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>37</v>
       </c>
@@ -1923,7 +2210,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>38</v>
       </c>
@@ -1937,7 +2224,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>39</v>
       </c>
@@ -1951,7 +2238,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>40</v>
       </c>
@@ -1965,7 +2252,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>41</v>
       </c>
@@ -1979,7 +2266,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>42</v>
       </c>
@@ -1993,7 +2280,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>43</v>
       </c>
@@ -2007,7 +2294,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>44</v>
       </c>
@@ -2024,6 +2311,281 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>18</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>20</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>21</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>22</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>23</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>24</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>25</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>26</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>27</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>28</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>29</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>30</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>31</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>32</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2035,13 +2597,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -2049,7 +2611,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -2057,7 +2619,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
@@ -2065,7 +2627,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
@@ -2073,7 +2635,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -2081,7 +2643,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -2089,7 +2651,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -2097,7 +2659,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -2105,7 +2667,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -2113,7 +2675,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
@@ -2121,7 +2683,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
@@ -2129,7 +2691,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -2137,7 +2699,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
@@ -2145,7 +2707,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
@@ -2153,7 +2715,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
@@ -2161,7 +2723,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
@@ -2169,7 +2731,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
@@ -2177,7 +2739,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -2185,7 +2747,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
@@ -2193,7 +2755,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -2201,7 +2763,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>57</v>
       </c>
@@ -2209,7 +2771,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
@@ -2230,13 +2792,13 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2250,7 +2812,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2264,7 +2826,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2278,7 +2840,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2292,7 +2854,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2306,7 +2868,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2320,7 +2882,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -2334,7 +2896,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -2348,7 +2910,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -2362,7 +2924,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -2376,7 +2938,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2390,7 +2952,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -2404,7 +2966,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -2418,7 +2980,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2432,7 +2994,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -2446,7 +3008,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -2460,7 +3022,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -2474,7 +3036,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -2488,7 +3050,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -2502,7 +3064,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -2516,7 +3078,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -2530,7 +3092,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -2544,7 +3106,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -2558,7 +3120,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -2572,7 +3134,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -2586,7 +3148,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -2600,7 +3162,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -2614,7 +3176,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -2628,7 +3190,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -2642,7 +3204,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -2656,7 +3218,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -2670,7 +3232,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -2684,7 +3246,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -2698,7 +3260,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -2712,7 +3274,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2726,7 +3288,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -2740,7 +3302,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -2754,7 +3316,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -2768,7 +3330,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -2782,7 +3344,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -2796,7 +3358,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -2810,7 +3372,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -2824,7 +3386,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -2838,7 +3400,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -2852,7 +3414,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -2866,7 +3428,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
@@ -2880,7 +3442,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
@@ -2894,7 +3456,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
@@ -2908,7 +3470,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
@@ -2922,7 +3484,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
@@ -2936,7 +3498,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
@@ -2950,7 +3512,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
@@ -2964,7 +3526,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
@@ -2978,7 +3540,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54</v>
       </c>
@@ -2992,7 +3554,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55</v>
       </c>
@@ -3006,7 +3568,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56</v>
       </c>
@@ -3020,7 +3582,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>57</v>
       </c>
@@ -3034,7 +3596,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>58</v>
       </c>
@@ -3048,7 +3610,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>59</v>
       </c>
@@ -3062,7 +3624,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -3076,7 +3638,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61</v>
       </c>
@@ -3090,7 +3652,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>62</v>
       </c>
@@ -3104,7 +3666,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>63</v>
       </c>
@@ -3118,7 +3680,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>64</v>
       </c>
@@ -3132,7 +3694,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -3146,7 +3708,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
@@ -3160,7 +3722,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -3174,7 +3736,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -3188,7 +3750,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -3202,7 +3764,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70</v>
       </c>
@@ -3225,16 +3787,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G186" sqref="A2:G186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -3260,7 +3823,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>353</v>
       </c>
@@ -3280,7 +3843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>354</v>
       </c>
@@ -3300,7 +3863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>355</v>
       </c>
@@ -3320,7 +3883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>356</v>
       </c>
@@ -3340,7 +3903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>357</v>
       </c>
@@ -3360,7 +3923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>358</v>
       </c>
@@ -3380,7 +3943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>359</v>
       </c>
@@ -3400,7 +3963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>360</v>
       </c>
@@ -3420,7 +3983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>361</v>
       </c>
@@ -3440,7 +4003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>362</v>
       </c>
@@ -3460,7 +4023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>363</v>
       </c>
@@ -3480,7 +4043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>5000</v>
       </c>
@@ -3497,7 +4060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>5000</v>
       </c>
@@ -3514,7 +4077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>5000</v>
       </c>
@@ -3531,7 +4094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>5000</v>
       </c>
@@ -3548,7 +4111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>5000</v>
       </c>
@@ -3565,7 +4128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>5000</v>
       </c>
@@ -3582,7 +4145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>5000</v>
       </c>
@@ -3599,7 +4162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>5000</v>
       </c>
@@ -3616,7 +4179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>5000</v>
       </c>
@@ -3633,7 +4196,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>5000</v>
       </c>
@@ -3650,7 +4213,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>5000</v>
       </c>
@@ -3667,7 +4230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>5000</v>
       </c>
@@ -3684,7 +4247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>5000</v>
       </c>
@@ -3701,7 +4264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>5000</v>
       </c>
@@ -3718,7 +4281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>5000</v>
       </c>
@@ -3735,7 +4298,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>5000</v>
       </c>
@@ -3752,7 +4315,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>5000</v>
       </c>
@@ -3769,7 +4332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>5000</v>
       </c>
@@ -3786,7 +4349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>5000</v>
       </c>
@@ -3803,7 +4366,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>5000</v>
       </c>
@@ -3820,7 +4383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>5000</v>
       </c>
@@ -3837,7 +4400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>5000</v>
       </c>
@@ -3854,7 +4417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>5000</v>
       </c>
@@ -3871,7 +4434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>5000</v>
       </c>
@@ -3888,7 +4451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>5000</v>
       </c>
@@ -3905,7 +4468,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>5000</v>
       </c>
@@ -3922,7 +4485,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>5000</v>
       </c>
@@ -3939,7 +4502,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>5000</v>
       </c>
@@ -3956,7 +4519,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>5000</v>
       </c>
@@ -3973,7 +4536,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>5000</v>
       </c>
@@ -3990,7 +4553,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C43">
         <v>5000</v>
       </c>
@@ -4007,7 +4570,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>5000</v>
       </c>
@@ -4024,7 +4587,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>5000</v>
       </c>
@@ -4041,7 +4604,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>5000</v>
       </c>
@@ -4058,7 +4621,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C47">
         <v>5000</v>
       </c>
@@ -4075,7 +4638,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C48">
         <v>5000</v>
       </c>
@@ -4092,7 +4655,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49">
         <v>5000</v>
       </c>
@@ -4109,7 +4672,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50">
         <v>5000</v>
       </c>
@@ -4126,7 +4689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C51">
         <v>5000</v>
       </c>
@@ -4143,7 +4706,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C52">
         <v>5000</v>
       </c>
@@ -4160,7 +4723,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C53">
         <v>5000</v>
       </c>
@@ -4177,7 +4740,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C54">
         <v>5000</v>
       </c>
@@ -4194,7 +4757,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>5000</v>
       </c>
@@ -4211,7 +4774,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>5000</v>
       </c>
@@ -4228,7 +4791,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C57">
         <v>5000</v>
       </c>
@@ -4245,7 +4808,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C58">
         <v>5000</v>
       </c>
@@ -4262,7 +4825,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>5000</v>
       </c>
@@ -4279,7 +4842,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>5000</v>
       </c>
@@ -4296,7 +4859,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>5000</v>
       </c>
@@ -4313,7 +4876,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C62">
         <v>5000</v>
       </c>
@@ -4330,7 +4893,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C63">
         <v>5000</v>
       </c>
@@ -4347,7 +4910,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C64">
         <v>5000</v>
       </c>
@@ -4364,7 +4927,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C65">
         <v>5000</v>
       </c>
@@ -4381,7 +4944,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C66">
         <v>5000</v>
       </c>
@@ -4398,7 +4961,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>5000</v>
       </c>
@@ -4415,7 +4978,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C68">
         <v>5000</v>
       </c>
@@ -4432,7 +4995,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C69">
         <v>5000</v>
       </c>
@@ -4449,7 +5012,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C70">
         <v>5000</v>
       </c>
@@ -4466,7 +5029,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C71">
         <v>5000</v>
       </c>
@@ -4483,7 +5046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C72">
         <v>5000</v>
       </c>
@@ -4500,7 +5063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C73">
         <v>5000</v>
       </c>
@@ -4517,7 +5080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C74">
         <v>5000</v>
       </c>
@@ -4534,7 +5097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C75">
         <v>5000</v>
       </c>
@@ -4551,7 +5114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C76">
         <v>5000</v>
       </c>
@@ -4568,7 +5131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C77">
         <v>5000</v>
       </c>
@@ -4585,7 +5148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C78">
         <v>5000</v>
       </c>
@@ -4602,7 +5165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C79">
         <v>5000</v>
       </c>
@@ -4619,7 +5182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C80">
         <v>5000</v>
       </c>
@@ -4636,7 +5199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C81">
         <v>5000</v>
       </c>
@@ -4653,7 +5216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C82">
         <v>5000</v>
       </c>
@@ -4670,7 +5233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C83">
         <v>5000</v>
       </c>
@@ -4687,7 +5250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C84">
         <v>5000</v>
       </c>
@@ -4704,7 +5267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C85">
         <v>5000</v>
       </c>
@@ -4721,7 +5284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C86">
         <v>5000</v>
       </c>
@@ -4738,7 +5301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C87">
         <v>5000</v>
       </c>
@@ -4755,7 +5318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C88">
         <v>5000</v>
       </c>
@@ -4772,7 +5335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C89">
         <v>5000</v>
       </c>
@@ -4789,7 +5352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C90">
         <v>5000</v>
       </c>
@@ -4806,7 +5369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C91">
         <v>5000</v>
       </c>
@@ -4823,7 +5386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C92">
         <v>5000</v>
       </c>
@@ -4840,7 +5403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C93">
         <v>5000</v>
       </c>
@@ -4857,7 +5420,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C94">
         <v>5000</v>
       </c>
@@ -4874,7 +5437,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C95">
         <v>5000</v>
       </c>
@@ -4891,7 +5454,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C96">
         <v>5000</v>
       </c>
@@ -4908,7 +5471,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C97">
         <v>5000</v>
       </c>
@@ -4925,7 +5488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C98">
         <v>5000</v>
       </c>
@@ -4942,7 +5505,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C99">
         <v>5000</v>
       </c>
@@ -4959,7 +5522,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C100">
         <v>5000</v>
       </c>
@@ -4976,7 +5539,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C101">
         <v>5000</v>
       </c>
@@ -4993,7 +5556,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C102">
         <v>5000</v>
       </c>
@@ -5010,7 +5573,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C103">
         <v>5000</v>
       </c>
@@ -5027,7 +5590,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C104">
         <v>5000</v>
       </c>
@@ -5044,7 +5607,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C105">
         <v>5000</v>
       </c>
@@ -5061,7 +5624,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C106">
         <v>5000</v>
       </c>
@@ -5078,7 +5641,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C107">
         <v>5000</v>
       </c>
@@ -5095,7 +5658,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C108">
         <v>5000</v>
       </c>
@@ -5112,7 +5675,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C109">
         <v>5000</v>
       </c>
@@ -5129,7 +5692,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C110">
         <v>5000</v>
       </c>
@@ -5146,7 +5709,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C111">
         <v>5000</v>
       </c>
@@ -5163,7 +5726,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C112">
         <v>5000</v>
       </c>
@@ -5180,7 +5743,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C113">
         <v>5000</v>
       </c>
@@ -5197,7 +5760,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C114">
         <v>5000</v>
       </c>
@@ -5214,7 +5777,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C115">
         <v>5000</v>
       </c>
@@ -5231,7 +5794,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C116">
         <v>5000</v>
       </c>
@@ -5248,7 +5811,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C117">
         <v>5000</v>
       </c>
@@ -5265,7 +5828,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C118">
         <v>5000</v>
       </c>
@@ -5282,7 +5845,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C119">
         <v>5000</v>
       </c>
@@ -5299,7 +5862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C120">
         <v>5000</v>
       </c>
@@ -5316,7 +5879,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C121">
         <v>5000</v>
       </c>
@@ -5333,7 +5896,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C122">
         <v>5000</v>
       </c>
@@ -5350,7 +5913,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C123">
         <v>5000</v>
       </c>
@@ -5367,7 +5930,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C124">
         <v>5000</v>
       </c>
@@ -5384,7 +5947,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C125">
         <v>5000</v>
       </c>
@@ -5401,7 +5964,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C126">
         <v>5000</v>
       </c>
@@ -5418,7 +5981,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C127">
         <v>5000</v>
       </c>
@@ -5435,7 +5998,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C128">
         <v>5000</v>
       </c>
@@ -5452,7 +6015,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C129">
         <v>5000</v>
       </c>
@@ -5469,7 +6032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C130">
         <v>5000</v>
       </c>
@@ -5486,7 +6049,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="131" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C131">
         <v>5000</v>
       </c>
@@ -5503,7 +6066,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="132" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C132">
         <v>5000</v>
       </c>
@@ -5520,7 +6083,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="133" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C133">
         <v>5000</v>
       </c>
@@ -5537,7 +6100,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="134" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C134">
         <v>5000</v>
       </c>
@@ -5554,7 +6117,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C135">
         <v>5000</v>
       </c>
@@ -5571,7 +6134,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="136" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C136">
         <v>5000</v>
       </c>
@@ -5588,7 +6151,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="137" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C137">
         <v>5000</v>
       </c>
@@ -5605,7 +6168,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="138" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C138">
         <v>5000</v>
       </c>
@@ -5622,7 +6185,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="139" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C139">
         <v>5000</v>
       </c>
@@ -5639,7 +6202,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="140" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C140">
         <v>5000</v>
       </c>
@@ -5656,7 +6219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C141">
         <v>5000</v>
       </c>
@@ -5673,7 +6236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C142">
         <v>5000</v>
       </c>
@@ -5690,7 +6253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C143">
         <v>5000</v>
       </c>
@@ -5707,7 +6270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C144">
         <v>5000</v>
       </c>
@@ -5724,7 +6287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C145">
         <v>5000</v>
       </c>
@@ -5741,7 +6304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C146">
         <v>5000</v>
       </c>
@@ -5758,7 +6321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C147">
         <v>5000</v>
       </c>
@@ -5775,7 +6338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C148">
         <v>5000</v>
       </c>
@@ -5792,7 +6355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C149">
         <v>5000</v>
       </c>
@@ -5809,7 +6372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C150">
         <v>5000</v>
       </c>
@@ -5826,7 +6389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C151">
         <v>5000</v>
       </c>
@@ -5843,7 +6406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C152">
         <v>5000</v>
       </c>
@@ -5860,7 +6423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C153">
         <v>5000</v>
       </c>
@@ -5877,7 +6440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C154">
         <v>5000</v>
       </c>
@@ -5894,7 +6457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C155">
         <v>5000</v>
       </c>
@@ -5911,7 +6474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C156">
         <v>5000</v>
       </c>
@@ -5928,7 +6491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C157">
         <v>5000</v>
       </c>
@@ -5945,7 +6508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C158">
         <v>5000</v>
       </c>
@@ -5962,7 +6525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C159">
         <v>5000</v>
       </c>
@@ -5979,7 +6542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C160">
         <v>5000</v>
       </c>
@@ -5996,7 +6559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C161">
         <v>5000</v>
       </c>
@@ -6013,7 +6576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C162">
         <v>5000</v>
       </c>
@@ -6030,7 +6593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C163">
         <v>5000</v>
       </c>
@@ -6047,7 +6610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C164">
         <v>5000</v>
       </c>
@@ -6064,7 +6627,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C165">
         <v>5000</v>
       </c>
@@ -6081,7 +6644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C166">
         <v>5000</v>
       </c>
@@ -6098,7 +6661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C167">
         <v>5000</v>
       </c>
@@ -6115,7 +6678,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C168">
         <v>5000</v>
       </c>
@@ -6132,7 +6695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C169">
         <v>5000</v>
       </c>
@@ -6149,7 +6712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C170">
         <v>5000</v>
       </c>
@@ -6166,7 +6729,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C171">
         <v>5000</v>
       </c>
@@ -6183,7 +6746,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="172" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C172">
         <v>5000</v>
       </c>
@@ -6200,7 +6763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="173" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C173">
         <v>5000</v>
       </c>
@@ -6217,7 +6780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="174" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C174">
         <v>5000</v>
       </c>
@@ -6234,7 +6797,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C175">
         <v>5000</v>
       </c>
@@ -6251,7 +6814,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="176" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C176">
         <v>5000</v>
       </c>
@@ -6268,7 +6831,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="177" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C177">
         <v>5000</v>
       </c>
@@ -6285,7 +6848,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C178">
         <v>5000</v>
       </c>
@@ -6302,7 +6865,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="179" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C179">
         <v>5000</v>
       </c>
@@ -6319,7 +6882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="180" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C180">
         <v>5000</v>
       </c>
@@ -6336,7 +6899,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="181" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C181">
         <v>5000</v>
       </c>
@@ -6353,7 +6916,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="182" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C182">
         <v>5000</v>
       </c>
@@ -6370,7 +6933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C183">
         <v>5000</v>
       </c>
@@ -6387,7 +6950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="184" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C184">
         <v>5000</v>
       </c>
@@ -6404,7 +6967,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="185" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C185">
         <v>5000</v>
       </c>
@@ -6421,7 +6984,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="186" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C186">
         <v>5000</v>
       </c>
@@ -6436,6 +6999,1747 @@
       </c>
       <c r="G186">
         <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="33.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2">
+        <v>9388063351</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="1">
+        <v>8171</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1">
+        <v>9365857579</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8865</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9365857579</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4223</v>
+      </c>
+      <c r="E3" s="1">
+        <v>465</v>
+      </c>
+      <c r="F3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9365857580</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D4">
+        <f ca="1">RANDBETWEEN(1000,9999)</f>
+        <v>3392</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>9365857581</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D38" ca="1" si="0">RANDBETWEEN(1000,9999)</f>
+        <v>5298</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9365857582</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>4612</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>9365857583</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>3109</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9365857584</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>8808</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>9365857585</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>5060</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9365857586</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>8410</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>9365857587</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>9910</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9365857588</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>5192</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>9365857589</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>3668</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9365857590</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>2521</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>9365857591</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>6123</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9365857592</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>2602</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F16" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>9365857593</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>3018</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F17" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9365857594</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>1338</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F18" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>9365857595</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>6892</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F19" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9365857596</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>9602</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F20" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>9365857597</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>8226</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F21" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9365857598</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="0"/>
+        <v>1113</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F22" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>9365857599</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="0"/>
+        <v>1919</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1">
+        <v>9365857600</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="0"/>
+        <v>4088</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F24" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>9365857601</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="0"/>
+        <v>7520</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F25" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1">
+        <v>9365857602</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="0"/>
+        <v>1103</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>9365857603</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="0"/>
+        <v>3513</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F27" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45</v>
+      </c>
+      <c r="B28" s="1">
+        <v>9365857604</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2971</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F28" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>9365857605</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="0"/>
+        <v>6013</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F29" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>47</v>
+      </c>
+      <c r="B30" s="1">
+        <v>9365857606</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="0"/>
+        <v>4788</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F30" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>9365857607</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="0"/>
+        <v>9069</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F31" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>49</v>
+      </c>
+      <c r="B32" s="1">
+        <v>9365857608</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="0"/>
+        <v>9322</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F32" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>9365857609</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="0"/>
+        <v>7063</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F33" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>51</v>
+      </c>
+      <c r="B34" s="1">
+        <v>9365857610</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="0"/>
+        <v>1497</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F34" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>52</v>
+      </c>
+      <c r="B35">
+        <v>9365857611</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="0"/>
+        <v>4140</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F35" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>53</v>
+      </c>
+      <c r="B36" s="1">
+        <v>9365857612</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="0"/>
+        <v>7692</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F36" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>54</v>
+      </c>
+      <c r="B37">
+        <v>9365857613</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="0"/>
+        <v>6646</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F37" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>55</v>
+      </c>
+      <c r="B38" s="1">
+        <v>9365857614</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="0"/>
+        <v>3142</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F38" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E43" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F1" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="F4" r:id="rId4" display="mailto:Kimmo.Aulake@minedu.fi"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F8" r:id="rId6" display="mailto:lgomez@ielpo.org"/>
+    <hyperlink ref="F10" r:id="rId7"/>
+    <hyperlink ref="F11" r:id="rId8" display="mailto:cheanariny@yahoo.com"/>
+    <hyperlink ref="F12" r:id="rId9"/>
+    <hyperlink ref="F13" r:id="rId10"/>
+    <hyperlink ref="F14" r:id="rId11"/>
+    <hyperlink ref="F17" r:id="rId12"/>
+    <hyperlink ref="F18" r:id="rId13"/>
+    <hyperlink ref="F19" r:id="rId14"/>
+    <hyperlink ref="F23" r:id="rId15" display="mailto:jpgrp2002@yahoo.com"/>
+    <hyperlink ref="F24" r:id="rId16"/>
+    <hyperlink ref="F27" r:id="rId17"/>
+    <hyperlink ref="F28" r:id="rId18"/>
+    <hyperlink ref="F29" r:id="rId19"/>
+    <hyperlink ref="F30" r:id="rId20" display="mailto:michael.helston@culture.gsi.gov.uk"/>
+    <hyperlink ref="F33" r:id="rId21"/>
+    <hyperlink ref="F34" r:id="rId22"/>
+    <hyperlink ref="F36" r:id="rId23"/>
+    <hyperlink ref="F37" r:id="rId24"/>
+    <hyperlink ref="F38" r:id="rId25"/>
+    <hyperlink ref="F31" r:id="rId26" display="mailto:hengsothea2003@yahoo.com"/>
+    <hyperlink ref="F20" r:id="rId27"/>
+    <hyperlink ref="F7" r:id="rId28" display="mailto:patrice.burel@francophonie.org.vn"/>
+    <hyperlink ref="F5" r:id="rId29"/>
+    <hyperlink ref="F32" r:id="rId30"/>
+    <hyperlink ref="F16" r:id="rId31"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4" display="mailto:Kimmo.Aulake@minedu.fi"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6" display="mailto:lgomez@ielpo.org"/>
+    <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8" display="mailto:cheanariny@yahoo.com"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="B13" r:id="rId10"/>
+    <hyperlink ref="B14" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId12" display="mailto:patrice.burel@francophonie.org.vn"/>
+    <hyperlink ref="B5" r:id="rId13"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>43</v>
+      </c>
+      <c r="B1">
+        <v>3860965470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>3860965473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>3860965476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>3860965479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>3860965482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>3860965485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>3860965488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>3860965491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>3860965494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>3860965497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>3860965500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>3860965503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>3860965506</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="A1:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1" s="4">
+        <v>24.25</v>
+      </c>
+      <c r="E1" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2" s="4">
+        <v>24.31</v>
+      </c>
+      <c r="E2" s="4">
+        <v>13.91</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D3" s="4">
+        <v>24.37</v>
+      </c>
+      <c r="E3" s="4">
+        <v>14.07</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D4" s="4">
+        <v>24.43</v>
+      </c>
+      <c r="E4" s="4">
+        <v>14.23</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D5" s="4">
+        <v>24.49</v>
+      </c>
+      <c r="E5" s="4">
+        <v>14.39</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D6" s="4">
+        <v>24.55</v>
+      </c>
+      <c r="E6" s="4">
+        <v>14.55</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D7" s="4">
+        <v>24.61</v>
+      </c>
+      <c r="E7" s="4">
+        <v>14.71</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D8" s="4">
+        <v>24.67</v>
+      </c>
+      <c r="E8" s="4">
+        <v>14.87</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D9" s="4">
+        <v>24.73</v>
+      </c>
+      <c r="E9" s="4">
+        <v>15.03</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D10" s="4">
+        <v>24.79</v>
+      </c>
+      <c r="E10" s="4">
+        <v>15.19</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D11" s="4">
+        <v>24.85</v>
+      </c>
+      <c r="E11" s="4">
+        <v>15.35</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H32" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>32</v>
+      </c>
+      <c r="B1">
+        <v>3545669871</v>
+      </c>
+      <c r="C1" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>3545669872</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3545669873</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3545669874</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3545669875</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3545669876</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>38</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3545669877</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3545669878</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3545669879</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>41</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3545669880</v>
+      </c>
+      <c r="C10" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3545669881</v>
+      </c>
+      <c r="C11" s="4">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
